--- a/Code/Results/Cases/Case_2_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005175447139162</v>
+        <v>1.042034035162742</v>
       </c>
       <c r="D2">
-        <v>1.027098546874538</v>
+        <v>1.049615836873899</v>
       </c>
       <c r="E2">
-        <v>1.022917958291679</v>
+        <v>1.055701767183661</v>
       </c>
       <c r="F2">
-        <v>1.030904544975062</v>
+        <v>1.062164314595168</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050270367885166</v>
+        <v>1.039235777331006</v>
       </c>
       <c r="J2">
-        <v>1.027202455750894</v>
+        <v>1.047112032540698</v>
       </c>
       <c r="K2">
-        <v>1.038192836182906</v>
+        <v>1.052372400553598</v>
       </c>
       <c r="L2">
-        <v>1.034066982229811</v>
+        <v>1.058441500330583</v>
       </c>
       <c r="M2">
-        <v>1.041949486997238</v>
+        <v>1.064886404280375</v>
       </c>
       <c r="N2">
-        <v>1.012439725030449</v>
+        <v>1.019522391235485</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011431631131033</v>
+        <v>1.043301195006434</v>
       </c>
       <c r="D3">
-        <v>1.032030497659836</v>
+        <v>1.050623411325124</v>
       </c>
       <c r="E3">
-        <v>1.028143194655324</v>
+        <v>1.056842726835421</v>
       </c>
       <c r="F3">
-        <v>1.036445601206389</v>
+        <v>1.063349361268014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052283466145735</v>
+        <v>1.039536506873624</v>
       </c>
       <c r="J3">
-        <v>1.031615436330203</v>
+        <v>1.048023885302263</v>
       </c>
       <c r="K3">
-        <v>1.042269310934526</v>
+        <v>1.053191752598147</v>
       </c>
       <c r="L3">
-        <v>1.038428209171712</v>
+        <v>1.059395118717814</v>
       </c>
       <c r="M3">
-        <v>1.046632460386882</v>
+        <v>1.065885282122408</v>
       </c>
       <c r="N3">
-        <v>1.013953790514313</v>
+        <v>1.019830818324642</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015373234829391</v>
+        <v>1.044120452674223</v>
       </c>
       <c r="D4">
-        <v>1.035139310769738</v>
+        <v>1.051274517116386</v>
       </c>
       <c r="E4">
-        <v>1.031447826130818</v>
+        <v>1.057581279893777</v>
       </c>
       <c r="F4">
-        <v>1.039945191324522</v>
+        <v>1.064116025035685</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053536494251284</v>
+        <v>1.03972900360946</v>
       </c>
       <c r="J4">
-        <v>1.034391702354907</v>
+        <v>1.04861275175547</v>
       </c>
       <c r="K4">
-        <v>1.044831355517025</v>
+        <v>1.053720458081628</v>
       </c>
       <c r="L4">
-        <v>1.041180959542963</v>
+        <v>1.060011865547078</v>
       </c>
       <c r="M4">
-        <v>1.049584280326118</v>
+        <v>1.066530906554367</v>
       </c>
       <c r="N4">
-        <v>1.014905738437579</v>
+        <v>1.020029846752443</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017005977300834</v>
+        <v>1.044464708796184</v>
       </c>
       <c r="D5">
-        <v>1.036427357451116</v>
+        <v>1.051548036951635</v>
       </c>
       <c r="E5">
-        <v>1.032819626602283</v>
+        <v>1.057891835036667</v>
       </c>
       <c r="F5">
-        <v>1.041396796021437</v>
+        <v>1.06443829846908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054051802784243</v>
+        <v>1.039809428103887</v>
       </c>
       <c r="J5">
-        <v>1.03554069334375</v>
+        <v>1.048860034429492</v>
       </c>
       <c r="K5">
-        <v>1.045891058588699</v>
+        <v>1.053942375253259</v>
       </c>
       <c r="L5">
-        <v>1.042322361671528</v>
+        <v>1.060271073462354</v>
       </c>
       <c r="M5">
-        <v>1.050807272420209</v>
+        <v>1.066802157060885</v>
       </c>
       <c r="N5">
-        <v>1.015299565598704</v>
+        <v>1.020113388445093</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017278729986093</v>
+        <v>1.044522501626172</v>
       </c>
       <c r="D6">
-        <v>1.036642541584639</v>
+        <v>1.051593950151932</v>
       </c>
       <c r="E6">
-        <v>1.033048956935263</v>
+        <v>1.057943982606582</v>
       </c>
       <c r="F6">
-        <v>1.04163940196942</v>
+        <v>1.064492407767397</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054137664334857</v>
+        <v>1.039822902358243</v>
       </c>
       <c r="J6">
-        <v>1.035732572272279</v>
+        <v>1.048901538097167</v>
       </c>
       <c r="K6">
-        <v>1.046067988884714</v>
+        <v>1.053979615601003</v>
       </c>
       <c r="L6">
-        <v>1.04251309861987</v>
+        <v>1.060314591400718</v>
       </c>
       <c r="M6">
-        <v>1.051011587954692</v>
+        <v>1.066847691288296</v>
       </c>
       <c r="N6">
-        <v>1.015365324847241</v>
+        <v>1.020127407862446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015395145595872</v>
+        <v>1.044125053265726</v>
       </c>
       <c r="D7">
-        <v>1.035156594888132</v>
+        <v>1.051278172705778</v>
       </c>
       <c r="E7">
-        <v>1.031466223763725</v>
+        <v>1.057585429280087</v>
       </c>
       <c r="F7">
-        <v>1.039964663660113</v>
+        <v>1.064120331392816</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05354342436066</v>
+        <v>1.039730080213994</v>
       </c>
       <c r="J7">
-        <v>1.034407125512362</v>
+        <v>1.048616057044133</v>
       </c>
       <c r="K7">
-        <v>1.044845582667595</v>
+        <v>1.053723424725787</v>
       </c>
       <c r="L7">
-        <v>1.041196272385259</v>
+        <v>1.060015329379016</v>
       </c>
       <c r="M7">
-        <v>1.049600691517005</v>
+        <v>1.066534531683084</v>
       </c>
       <c r="N7">
-        <v>1.014911025465046</v>
+        <v>1.020030963550264</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00731257142294</v>
+        <v>1.042462420186234</v>
       </c>
       <c r="D8">
-        <v>1.028782932876249</v>
+        <v>1.049956530750894</v>
       </c>
       <c r="E8">
-        <v>1.024700200484796</v>
+        <v>1.056087303560449</v>
       </c>
       <c r="F8">
-        <v>1.03279552448936</v>
+        <v>1.062564836797749</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05096122314483</v>
+        <v>1.039337844459627</v>
       </c>
       <c r="J8">
-        <v>1.028710757331522</v>
+        <v>1.047420439339672</v>
       </c>
       <c r="K8">
-        <v>1.03958664009268</v>
+        <v>1.052649609604799</v>
       </c>
       <c r="L8">
-        <v>1.035555671681305</v>
+        <v>1.058763844690088</v>
       </c>
       <c r="M8">
-        <v>1.043548854110735</v>
+        <v>1.065224128940884</v>
       </c>
       <c r="N8">
-        <v>1.01295732731311</v>
+        <v>1.01962673866429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9921949749673898</v>
+        <v>1.039527315149898</v>
       </c>
       <c r="D9">
-        <v>1.016878525772659</v>
+        <v>1.047620961842643</v>
       </c>
       <c r="E9">
-        <v>1.012151503760088</v>
+        <v>1.053449464379275</v>
       </c>
       <c r="F9">
-        <v>1.019459898660029</v>
+        <v>1.059822703908771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046011518789848</v>
+        <v>1.038630603390936</v>
       </c>
       <c r="J9">
-        <v>1.01802639166385</v>
+        <v>1.045304621961877</v>
       </c>
       <c r="K9">
-        <v>1.029703570030686</v>
+        <v>1.050746090803719</v>
       </c>
       <c r="L9">
-        <v>1.025050460409051</v>
+        <v>1.056556151083368</v>
       </c>
       <c r="M9">
-        <v>1.032244949713084</v>
+        <v>1.062909478363558</v>
       </c>
       <c r="N9">
-        <v>1.009288794952021</v>
+        <v>1.01891024964365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9814375040491911</v>
+        <v>1.037566809604749</v>
       </c>
       <c r="D10">
-        <v>1.008426042867168</v>
+        <v>1.046059341806343</v>
       </c>
       <c r="E10">
-        <v>1.003302569050229</v>
+        <v>1.051692191946843</v>
       </c>
       <c r="F10">
-        <v>1.01002768705331</v>
+        <v>1.057993731823832</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042412645855825</v>
+        <v>1.038148268965417</v>
       </c>
       <c r="J10">
-        <v>1.010407459344279</v>
+        <v>1.043887924707701</v>
       </c>
       <c r="K10">
-        <v>1.022644811014368</v>
+        <v>1.04946938038763</v>
       </c>
       <c r="L10">
-        <v>1.017612449520897</v>
+        <v>1.055082645391564</v>
       </c>
       <c r="M10">
-        <v>1.024218218489151</v>
+        <v>1.061362546960202</v>
       </c>
       <c r="N10">
-        <v>1.006670797479596</v>
+        <v>1.018429738264194</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9765952643993777</v>
+        <v>1.036716953557874</v>
       </c>
       <c r="D11">
-        <v>1.004627500181006</v>
+        <v>1.045382036734046</v>
       </c>
       <c r="E11">
-        <v>0.9993406066340361</v>
+        <v>1.050931557679214</v>
       </c>
       <c r="F11">
-        <v>1.005797404770656</v>
+        <v>1.057201532033999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040775644758918</v>
+        <v>1.03793683325294</v>
       </c>
       <c r="J11">
-        <v>1.006975196095337</v>
+        <v>1.043272994461362</v>
       </c>
       <c r="K11">
-        <v>1.019462673098786</v>
+        <v>1.048914704462552</v>
       </c>
       <c r="L11">
-        <v>1.014274968870656</v>
+        <v>1.054444175981352</v>
       </c>
       <c r="M11">
-        <v>1.020610812466064</v>
+        <v>1.06069177737318</v>
       </c>
       <c r="N11">
-        <v>1.005491124014978</v>
+        <v>1.018220987444681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9747667538163046</v>
+        <v>1.036401133637749</v>
       </c>
       <c r="D12">
-        <v>1.003194196778788</v>
+        <v>1.04513028624411</v>
       </c>
       <c r="E12">
-        <v>0.9978478829857509</v>
+        <v>1.050649063831705</v>
       </c>
       <c r="F12">
-        <v>1.004202469458257</v>
+        <v>1.056907235002395</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040155032678342</v>
+        <v>1.037857907928031</v>
       </c>
       <c r="J12">
-        <v>1.00567879860465</v>
+        <v>1.043044355684686</v>
       </c>
       <c r="K12">
-        <v>1.018260455816684</v>
+        <v>1.048708393028345</v>
       </c>
       <c r="L12">
-        <v>1.013016430635006</v>
+        <v>1.054206953369143</v>
       </c>
       <c r="M12">
-        <v>1.019249597250242</v>
+        <v>1.06044248069337</v>
       </c>
       <c r="N12">
-        <v>1.005045523989086</v>
+        <v>1.018143344299998</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9751603661996069</v>
+        <v>1.03646888472831</v>
       </c>
       <c r="D13">
-        <v>1.003502683310616</v>
+        <v>1.045184295268583</v>
       </c>
       <c r="E13">
-        <v>0.9981690566327573</v>
+        <v>1.050709657960575</v>
       </c>
       <c r="F13">
-        <v>1.004545686141755</v>
+        <v>1.056970364505274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040288737007517</v>
+        <v>1.037874855280206</v>
       </c>
       <c r="J13">
-        <v>1.005957878898344</v>
+        <v>1.043093409756218</v>
       </c>
       <c r="K13">
-        <v>1.018519274201107</v>
+        <v>1.048752660236633</v>
       </c>
       <c r="L13">
-        <v>1.01328726676412</v>
+        <v>1.054257841469351</v>
       </c>
       <c r="M13">
-        <v>1.019542569979614</v>
+        <v>1.060495962181139</v>
       </c>
       <c r="N13">
-        <v>1.005141450873363</v>
+        <v>1.018160003726344</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9764447424957786</v>
+        <v>1.03669085077522</v>
       </c>
       <c r="D14">
-        <v>1.004509488383256</v>
+        <v>1.045361230423695</v>
       </c>
       <c r="E14">
-        <v>0.9992176567361726</v>
+        <v>1.050908205853265</v>
       </c>
       <c r="F14">
-        <v>1.005666059060925</v>
+        <v>1.057177206153425</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040724605472923</v>
+        <v>1.037930317194798</v>
       </c>
       <c r="J14">
-        <v>1.006868483273554</v>
+        <v>1.043254099738639</v>
       </c>
       <c r="K14">
-        <v>1.019363718442929</v>
+        <v>1.048897656419866</v>
       </c>
       <c r="L14">
-        <v>1.014171330253685</v>
+        <v>1.054424568456133</v>
       </c>
       <c r="M14">
-        <v>1.02049873678719</v>
+        <v>1.060671173360726</v>
       </c>
       <c r="N14">
-        <v>1.005454444933139</v>
+        <v>1.01821457155958</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9772320584546185</v>
+        <v>1.036827591985821</v>
       </c>
       <c r="D15">
-        <v>1.005126803175445</v>
+        <v>1.045470223528628</v>
       </c>
       <c r="E15">
-        <v>0.9998608939707924</v>
+        <v>1.051030542950746</v>
       </c>
       <c r="F15">
-        <v>1.006353174881166</v>
+        <v>1.057304642915393</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040991471105797</v>
+        <v>1.03796443758156</v>
       </c>
       <c r="J15">
-        <v>1.007426640275001</v>
+        <v>1.043353076083781</v>
       </c>
       <c r="K15">
-        <v>1.019881284948783</v>
+        <v>1.048986956181717</v>
       </c>
       <c r="L15">
-        <v>1.014713491906937</v>
+        <v>1.054527285570642</v>
       </c>
       <c r="M15">
-        <v>1.021084998607928</v>
+        <v>1.060779107742034</v>
       </c>
       <c r="N15">
-        <v>1.005646292379398</v>
+        <v>1.018248178827683</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9817548032195332</v>
+        <v>1.037623191543928</v>
       </c>
       <c r="D16">
-        <v>1.008675092572227</v>
+        <v>1.046104268689873</v>
       </c>
       <c r="E16">
-        <v>1.003562641568344</v>
+        <v>1.051742678395399</v>
       </c>
       <c r="F16">
-        <v>1.010305220321868</v>
+        <v>1.058046302205105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04251956952975</v>
+        <v>1.038162246794257</v>
       </c>
       <c r="J16">
-        <v>1.010632317153422</v>
+        <v>1.043928703993646</v>
       </c>
       <c r="K16">
-        <v>1.022853239485914</v>
+        <v>1.049506153225302</v>
       </c>
       <c r="L16">
-        <v>1.01783137840871</v>
+        <v>1.055125009255676</v>
       </c>
       <c r="M16">
-        <v>1.024454732006036</v>
+        <v>1.061407043789385</v>
       </c>
       <c r="N16">
-        <v>1.006748076824973</v>
+        <v>1.018443577851162</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9845409986428031</v>
+        <v>1.03812199473784</v>
       </c>
       <c r="D17">
-        <v>1.010862706486139</v>
+        <v>1.046501689023286</v>
       </c>
       <c r="E17">
-        <v>1.00584875117814</v>
+        <v>1.052189454762439</v>
       </c>
       <c r="F17">
-        <v>1.012743996785636</v>
+        <v>1.058511458873096</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043456546449072</v>
+        <v>1.038285635516154</v>
       </c>
       <c r="J17">
-        <v>1.012606485252527</v>
+        <v>1.044289379375374</v>
       </c>
       <c r="K17">
-        <v>1.024682916623078</v>
+        <v>1.049831334692632</v>
       </c>
       <c r="L17">
-        <v>1.019755001904102</v>
+        <v>1.055499828691113</v>
       </c>
       <c r="M17">
-        <v>1.02653220729485</v>
+        <v>1.061800678885968</v>
       </c>
       <c r="N17">
-        <v>1.007426530129956</v>
+        <v>1.018565962283394</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9861485298685088</v>
+        <v>1.038412847350588</v>
       </c>
       <c r="D18">
-        <v>1.012125447388011</v>
+        <v>1.046733390298701</v>
       </c>
       <c r="E18">
-        <v>1.007169735410983</v>
+        <v>1.052450078648388</v>
       </c>
       <c r="F18">
-        <v>1.014152521751767</v>
+        <v>1.058782753616278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043995532914871</v>
+        <v>1.038357357027253</v>
       </c>
       <c r="J18">
-        <v>1.013745239152046</v>
+        <v>1.044499611522023</v>
       </c>
       <c r="K18">
-        <v>1.025738111510047</v>
+        <v>1.050020828988841</v>
       </c>
       <c r="L18">
-        <v>1.020865846970879</v>
+        <v>1.055718412993628</v>
       </c>
       <c r="M18">
-        <v>1.027731355414569</v>
+        <v>1.062030189207429</v>
       </c>
       <c r="N18">
-        <v>1.007817852166654</v>
+        <v>1.018637280889568</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9866937331027116</v>
+        <v>1.038512005276103</v>
       </c>
       <c r="D19">
-        <v>1.012553804910028</v>
+        <v>1.04681237630799</v>
       </c>
       <c r="E19">
-        <v>1.00761808565144</v>
+        <v>1.052538949259917</v>
       </c>
       <c r="F19">
-        <v>1.014630470556071</v>
+        <v>1.058875254233744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044178056280779</v>
+        <v>1.038381769991285</v>
       </c>
       <c r="J19">
-        <v>1.014131405732647</v>
+        <v>1.044571270945812</v>
       </c>
       <c r="K19">
-        <v>1.026095904896844</v>
+        <v>1.05008541141735</v>
       </c>
       <c r="L19">
-        <v>1.021242758986974</v>
+        <v>1.055792937600766</v>
       </c>
       <c r="M19">
-        <v>1.028138137485038</v>
+        <v>1.062108431028975</v>
       </c>
       <c r="N19">
-        <v>1.007950549387346</v>
+        <v>1.018661587489825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9842439029281195</v>
+        <v>1.038068487300955</v>
       </c>
       <c r="D20">
-        <v>1.010629378092839</v>
+        <v>1.046459060694542</v>
       </c>
       <c r="E20">
-        <v>1.005604772878997</v>
+        <v>1.052141517130448</v>
       </c>
       <c r="F20">
-        <v>1.012483795905768</v>
+        <v>1.058461554389506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043356802304205</v>
+        <v>1.038272422840061</v>
       </c>
       <c r="J20">
-        <v>1.012396004228698</v>
+        <v>1.044250697201665</v>
       </c>
       <c r="K20">
-        <v>1.024487862694738</v>
+        <v>1.049796464281631</v>
       </c>
       <c r="L20">
-        <v>1.01954977989066</v>
+        <v>1.055459618422709</v>
       </c>
       <c r="M20">
-        <v>1.026310628083783</v>
+        <v>1.061758454928759</v>
       </c>
       <c r="N20">
-        <v>1.007354197904574</v>
+        <v>1.018552838440958</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9760673697160356</v>
+        <v>1.036625491354217</v>
       </c>
       <c r="D21">
-        <v>1.004213639661381</v>
+        <v>1.045309132117968</v>
       </c>
       <c r="E21">
-        <v>0.9989094646794388</v>
+        <v>1.050849737370263</v>
       </c>
       <c r="F21">
-        <v>1.005336803508449</v>
+        <v>1.057116297531695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040596606024812</v>
+        <v>1.037913995779544</v>
       </c>
       <c r="J21">
-        <v>1.006600939283832</v>
+        <v>1.043206786809538</v>
       </c>
       <c r="K21">
-        <v>1.019115620667204</v>
+        <v>1.04885496640506</v>
       </c>
       <c r="L21">
-        <v>1.013911527082601</v>
+        <v>1.054375473368212</v>
       </c>
       <c r="M21">
-        <v>1.02021776902028</v>
+        <v>1.060619581999128</v>
       </c>
       <c r="N21">
-        <v>1.005362484970917</v>
+        <v>1.018198505563664</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9707522619432114</v>
+        <v>1.035717378614646</v>
       </c>
       <c r="D22">
-        <v>1.000049585144255</v>
+        <v>1.044585146285529</v>
       </c>
       <c r="E22">
-        <v>0.9945770721133745</v>
+        <v>1.050037772239745</v>
       </c>
       <c r="F22">
-        <v>1.000705586529254</v>
+        <v>1.056270255776531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038788086188917</v>
+        <v>1.037686389227229</v>
       </c>
       <c r="J22">
-        <v>1.00283209134047</v>
+        <v>1.042549128441239</v>
       </c>
       <c r="K22">
-        <v>1.015620059807259</v>
+        <v>1.048261387817873</v>
       </c>
       <c r="L22">
-        <v>1.010256729214884</v>
+        <v>1.053693441861198</v>
       </c>
       <c r="M22">
-        <v>1.016263078559676</v>
+        <v>1.05990269906754</v>
       </c>
       <c r="N22">
-        <v>1.004067019451426</v>
+        <v>1.017975121540945</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9735872173340762</v>
+        <v>1.03619886758888</v>
       </c>
       <c r="D23">
-        <v>1.002269929780567</v>
+        <v>1.044969038437028</v>
       </c>
       <c r="E23">
-        <v>0.996885934805113</v>
+        <v>1.050468189344033</v>
       </c>
       <c r="F23">
-        <v>1.003174332745821</v>
+        <v>1.056718780645599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039754010736531</v>
+        <v>1.037807261241976</v>
       </c>
       <c r="J23">
-        <v>1.004842441429436</v>
+        <v>1.042897890574513</v>
       </c>
       <c r="K23">
-        <v>1.017484780328439</v>
+        <v>1.048576209386835</v>
       </c>
       <c r="L23">
-        <v>1.012205086986378</v>
+        <v>1.054055036899612</v>
       </c>
       <c r="M23">
-        <v>1.018371806496657</v>
+        <v>1.060282811477319</v>
       </c>
       <c r="N23">
-        <v>1.004758044556685</v>
+        <v>1.018093598828694</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9843782019475487</v>
+        <v>1.038092665289079</v>
       </c>
       <c r="D24">
-        <v>1.010734850005556</v>
+        <v>1.046478322932894</v>
       </c>
       <c r="E24">
-        <v>1.005715054580121</v>
+        <v>1.052163178000168</v>
       </c>
       <c r="F24">
-        <v>1.012601412537414</v>
+        <v>1.058484104149455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043401895624552</v>
+        <v>1.038278393849168</v>
       </c>
       <c r="J24">
-        <v>1.012491150818896</v>
+        <v>1.044268176454889</v>
       </c>
       <c r="K24">
-        <v>1.024576036229212</v>
+        <v>1.049812221271078</v>
       </c>
       <c r="L24">
-        <v>1.01964254531318</v>
+        <v>1.055477787840529</v>
       </c>
       <c r="M24">
-        <v>1.026410789045855</v>
+        <v>1.061777534396755</v>
       </c>
       <c r="N24">
-        <v>1.007386895309967</v>
+        <v>1.01855876874488</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9962157502991295</v>
+        <v>1.040286760954974</v>
       </c>
       <c r="D25">
-        <v>1.020042068282021</v>
+        <v>1.048225561823064</v>
       </c>
       <c r="E25">
-        <v>1.015475899373894</v>
+        <v>1.054131175469731</v>
       </c>
       <c r="F25">
-        <v>1.022997503199827</v>
+        <v>1.060531758702533</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047341444619887</v>
+        <v>1.038815350263172</v>
       </c>
       <c r="J25">
-        <v>1.020871144157603</v>
+        <v>1.045852687705847</v>
       </c>
       <c r="K25">
-        <v>1.032337024486195</v>
+        <v>1.051239546380595</v>
       </c>
       <c r="L25">
-        <v>1.027838629928798</v>
+        <v>1.057127187961138</v>
       </c>
       <c r="M25">
-        <v>1.035249002120335</v>
+        <v>1.063508539089248</v>
       </c>
       <c r="N25">
-        <v>1.010265954123615</v>
+        <v>1.019095979497993</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042034035162742</v>
+        <v>1.005175447139162</v>
       </c>
       <c r="D2">
-        <v>1.049615836873899</v>
+        <v>1.027098546874537</v>
       </c>
       <c r="E2">
-        <v>1.055701767183661</v>
+        <v>1.022917958291678</v>
       </c>
       <c r="F2">
-        <v>1.062164314595168</v>
+        <v>1.030904544975061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039235777331006</v>
+        <v>1.050270367885166</v>
       </c>
       <c r="J2">
-        <v>1.047112032540698</v>
+        <v>1.027202455750894</v>
       </c>
       <c r="K2">
-        <v>1.052372400553598</v>
+        <v>1.038192836182906</v>
       </c>
       <c r="L2">
-        <v>1.058441500330583</v>
+        <v>1.034066982229811</v>
       </c>
       <c r="M2">
-        <v>1.064886404280375</v>
+        <v>1.041949486997237</v>
       </c>
       <c r="N2">
-        <v>1.019522391235485</v>
+        <v>1.012439725030449</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043301195006434</v>
+        <v>1.011431631131033</v>
       </c>
       <c r="D3">
-        <v>1.050623411325124</v>
+        <v>1.032030497659837</v>
       </c>
       <c r="E3">
-        <v>1.056842726835421</v>
+        <v>1.028143194655325</v>
       </c>
       <c r="F3">
-        <v>1.063349361268014</v>
+        <v>1.036445601206389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039536506873624</v>
+        <v>1.052283466145735</v>
       </c>
       <c r="J3">
-        <v>1.048023885302263</v>
+        <v>1.031615436330203</v>
       </c>
       <c r="K3">
-        <v>1.053191752598147</v>
+        <v>1.042269310934526</v>
       </c>
       <c r="L3">
-        <v>1.059395118717814</v>
+        <v>1.038428209171712</v>
       </c>
       <c r="M3">
-        <v>1.065885282122408</v>
+        <v>1.046632460386882</v>
       </c>
       <c r="N3">
-        <v>1.019830818324642</v>
+        <v>1.013953790514313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044120452674223</v>
+        <v>1.015373234829392</v>
       </c>
       <c r="D4">
-        <v>1.051274517116386</v>
+        <v>1.035139310769739</v>
       </c>
       <c r="E4">
-        <v>1.057581279893777</v>
+        <v>1.031447826130819</v>
       </c>
       <c r="F4">
-        <v>1.064116025035685</v>
+        <v>1.039945191324523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03972900360946</v>
+        <v>1.053536494251285</v>
       </c>
       <c r="J4">
-        <v>1.04861275175547</v>
+        <v>1.034391702354908</v>
       </c>
       <c r="K4">
-        <v>1.053720458081628</v>
+        <v>1.044831355517027</v>
       </c>
       <c r="L4">
-        <v>1.060011865547078</v>
+        <v>1.041180959542964</v>
       </c>
       <c r="M4">
-        <v>1.066530906554367</v>
+        <v>1.049584280326119</v>
       </c>
       <c r="N4">
-        <v>1.020029846752443</v>
+        <v>1.014905738437579</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044464708796184</v>
+        <v>1.017005977300834</v>
       </c>
       <c r="D5">
-        <v>1.051548036951635</v>
+        <v>1.036427357451116</v>
       </c>
       <c r="E5">
-        <v>1.057891835036667</v>
+        <v>1.032819626602283</v>
       </c>
       <c r="F5">
-        <v>1.06443829846908</v>
+        <v>1.041396796021437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039809428103887</v>
+        <v>1.054051802784243</v>
       </c>
       <c r="J5">
-        <v>1.048860034429492</v>
+        <v>1.03554069334375</v>
       </c>
       <c r="K5">
-        <v>1.053942375253259</v>
+        <v>1.045891058588699</v>
       </c>
       <c r="L5">
-        <v>1.060271073462354</v>
+        <v>1.042322361671528</v>
       </c>
       <c r="M5">
-        <v>1.066802157060885</v>
+        <v>1.050807272420209</v>
       </c>
       <c r="N5">
-        <v>1.020113388445093</v>
+        <v>1.015299565598704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044522501626172</v>
+        <v>1.017278729986093</v>
       </c>
       <c r="D6">
-        <v>1.051593950151932</v>
+        <v>1.036642541584639</v>
       </c>
       <c r="E6">
-        <v>1.057943982606582</v>
+        <v>1.033048956935263</v>
       </c>
       <c r="F6">
-        <v>1.064492407767397</v>
+        <v>1.041639401969421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039822902358243</v>
+        <v>1.054137664334857</v>
       </c>
       <c r="J6">
-        <v>1.048901538097167</v>
+        <v>1.03573257227228</v>
       </c>
       <c r="K6">
-        <v>1.053979615601003</v>
+        <v>1.046067988884714</v>
       </c>
       <c r="L6">
-        <v>1.060314591400718</v>
+        <v>1.042513098619871</v>
       </c>
       <c r="M6">
-        <v>1.066847691288296</v>
+        <v>1.051011587954693</v>
       </c>
       <c r="N6">
-        <v>1.020127407862446</v>
+        <v>1.015365324847241</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044125053265726</v>
+        <v>1.015395145595871</v>
       </c>
       <c r="D7">
-        <v>1.051278172705778</v>
+        <v>1.035156594888132</v>
       </c>
       <c r="E7">
-        <v>1.057585429280087</v>
+        <v>1.031466223763725</v>
       </c>
       <c r="F7">
-        <v>1.064120331392816</v>
+        <v>1.039964663660114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039730080213994</v>
+        <v>1.05354342436066</v>
       </c>
       <c r="J7">
-        <v>1.048616057044133</v>
+        <v>1.034407125512362</v>
       </c>
       <c r="K7">
-        <v>1.053723424725787</v>
+        <v>1.044845582667594</v>
       </c>
       <c r="L7">
-        <v>1.060015329379016</v>
+        <v>1.041196272385259</v>
       </c>
       <c r="M7">
-        <v>1.066534531683084</v>
+        <v>1.049600691517005</v>
       </c>
       <c r="N7">
-        <v>1.020030963550264</v>
+        <v>1.014911025465046</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042462420186234</v>
+        <v>1.007312571422939</v>
       </c>
       <c r="D8">
-        <v>1.049956530750894</v>
+        <v>1.028782932876249</v>
       </c>
       <c r="E8">
-        <v>1.056087303560449</v>
+        <v>1.024700200484796</v>
       </c>
       <c r="F8">
-        <v>1.062564836797749</v>
+        <v>1.032795524489359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039337844459627</v>
+        <v>1.050961223144829</v>
       </c>
       <c r="J8">
-        <v>1.047420439339672</v>
+        <v>1.028710757331522</v>
       </c>
       <c r="K8">
-        <v>1.052649609604799</v>
+        <v>1.039586640092679</v>
       </c>
       <c r="L8">
-        <v>1.058763844690088</v>
+        <v>1.035555671681304</v>
       </c>
       <c r="M8">
-        <v>1.065224128940884</v>
+        <v>1.043548854110734</v>
       </c>
       <c r="N8">
-        <v>1.01962673866429</v>
+        <v>1.01295732731311</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039527315149898</v>
+        <v>0.9921949749673894</v>
       </c>
       <c r="D9">
-        <v>1.047620961842643</v>
+        <v>1.016878525772658</v>
       </c>
       <c r="E9">
-        <v>1.053449464379275</v>
+        <v>1.012151503760087</v>
       </c>
       <c r="F9">
-        <v>1.059822703908771</v>
+        <v>1.019459898660028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038630603390936</v>
+        <v>1.046011518789847</v>
       </c>
       <c r="J9">
-        <v>1.045304621961877</v>
+        <v>1.018026391663849</v>
       </c>
       <c r="K9">
-        <v>1.050746090803719</v>
+        <v>1.029703570030686</v>
       </c>
       <c r="L9">
-        <v>1.056556151083368</v>
+        <v>1.025050460409051</v>
       </c>
       <c r="M9">
-        <v>1.062909478363558</v>
+        <v>1.032244949713083</v>
       </c>
       <c r="N9">
-        <v>1.01891024964365</v>
+        <v>1.009288794952021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037566809604749</v>
+        <v>0.9814375040491906</v>
       </c>
       <c r="D10">
-        <v>1.046059341806343</v>
+        <v>1.008426042867168</v>
       </c>
       <c r="E10">
-        <v>1.051692191946843</v>
+        <v>1.003302569050229</v>
       </c>
       <c r="F10">
-        <v>1.057993731823832</v>
+        <v>1.01002768705331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038148268965417</v>
+        <v>1.042412645855825</v>
       </c>
       <c r="J10">
-        <v>1.043887924707701</v>
+        <v>1.010407459344279</v>
       </c>
       <c r="K10">
-        <v>1.04946938038763</v>
+        <v>1.022644811014368</v>
       </c>
       <c r="L10">
-        <v>1.055082645391564</v>
+        <v>1.017612449520898</v>
       </c>
       <c r="M10">
-        <v>1.061362546960202</v>
+        <v>1.024218218489151</v>
       </c>
       <c r="N10">
-        <v>1.018429738264194</v>
+        <v>1.006670797479596</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036716953557874</v>
+        <v>0.9765952643993787</v>
       </c>
       <c r="D11">
-        <v>1.045382036734046</v>
+        <v>1.004627500181007</v>
       </c>
       <c r="E11">
-        <v>1.050931557679214</v>
+        <v>0.9993406066340368</v>
       </c>
       <c r="F11">
-        <v>1.057201532033999</v>
+        <v>1.005797404770657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03793683325294</v>
+        <v>1.040775644758919</v>
       </c>
       <c r="J11">
-        <v>1.043272994461362</v>
+        <v>1.006975196095338</v>
       </c>
       <c r="K11">
-        <v>1.048914704462552</v>
+        <v>1.019462673098787</v>
       </c>
       <c r="L11">
-        <v>1.054444175981352</v>
+        <v>1.014274968870656</v>
       </c>
       <c r="M11">
-        <v>1.06069177737318</v>
+        <v>1.020610812466065</v>
       </c>
       <c r="N11">
-        <v>1.018220987444681</v>
+        <v>1.005491124014978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036401133637749</v>
+        <v>0.9747667538163043</v>
       </c>
       <c r="D12">
-        <v>1.04513028624411</v>
+        <v>1.003194196778787</v>
       </c>
       <c r="E12">
-        <v>1.050649063831705</v>
+        <v>0.9978478829857508</v>
       </c>
       <c r="F12">
-        <v>1.056907235002395</v>
+        <v>1.004202469458257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037857907928031</v>
+        <v>1.040155032678342</v>
       </c>
       <c r="J12">
-        <v>1.043044355684686</v>
+        <v>1.00567879860465</v>
       </c>
       <c r="K12">
-        <v>1.048708393028345</v>
+        <v>1.018260455816684</v>
       </c>
       <c r="L12">
-        <v>1.054206953369143</v>
+        <v>1.013016430635006</v>
       </c>
       <c r="M12">
-        <v>1.06044248069337</v>
+        <v>1.019249597250242</v>
       </c>
       <c r="N12">
-        <v>1.018143344299998</v>
+        <v>1.005045523989086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03646888472831</v>
+        <v>0.9751603661996069</v>
       </c>
       <c r="D13">
-        <v>1.045184295268583</v>
+        <v>1.003502683310616</v>
       </c>
       <c r="E13">
-        <v>1.050709657960575</v>
+        <v>0.9981690566327578</v>
       </c>
       <c r="F13">
-        <v>1.056970364505274</v>
+        <v>1.004545686141756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037874855280206</v>
+        <v>1.040288737007517</v>
       </c>
       <c r="J13">
-        <v>1.043093409756218</v>
+        <v>1.005957878898344</v>
       </c>
       <c r="K13">
-        <v>1.048752660236633</v>
+        <v>1.018519274201107</v>
       </c>
       <c r="L13">
-        <v>1.054257841469351</v>
+        <v>1.013287266764121</v>
       </c>
       <c r="M13">
-        <v>1.060495962181139</v>
+        <v>1.019542569979614</v>
       </c>
       <c r="N13">
-        <v>1.018160003726344</v>
+        <v>1.005141450873363</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03669085077522</v>
+        <v>0.9764447424957787</v>
       </c>
       <c r="D14">
-        <v>1.045361230423695</v>
+        <v>1.004509488383256</v>
       </c>
       <c r="E14">
-        <v>1.050908205853265</v>
+        <v>0.9992176567361729</v>
       </c>
       <c r="F14">
-        <v>1.057177206153425</v>
+        <v>1.005666059060925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037930317194798</v>
+        <v>1.040724605472923</v>
       </c>
       <c r="J14">
-        <v>1.043254099738639</v>
+        <v>1.006868483273554</v>
       </c>
       <c r="K14">
-        <v>1.048897656419866</v>
+        <v>1.019363718442929</v>
       </c>
       <c r="L14">
-        <v>1.054424568456133</v>
+        <v>1.014171330253685</v>
       </c>
       <c r="M14">
-        <v>1.060671173360726</v>
+        <v>1.02049873678719</v>
       </c>
       <c r="N14">
-        <v>1.01821457155958</v>
+        <v>1.005454444933139</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036827591985821</v>
+        <v>0.9772320584546182</v>
       </c>
       <c r="D15">
-        <v>1.045470223528628</v>
+        <v>1.005126803175444</v>
       </c>
       <c r="E15">
-        <v>1.051030542950746</v>
+        <v>0.9998608939707923</v>
       </c>
       <c r="F15">
-        <v>1.057304642915393</v>
+        <v>1.006353174881165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03796443758156</v>
+        <v>1.040991471105796</v>
       </c>
       <c r="J15">
-        <v>1.043353076083781</v>
+        <v>1.007426640275</v>
       </c>
       <c r="K15">
-        <v>1.048986956181717</v>
+        <v>1.019881284948782</v>
       </c>
       <c r="L15">
-        <v>1.054527285570642</v>
+        <v>1.014713491906937</v>
       </c>
       <c r="M15">
-        <v>1.060779107742034</v>
+        <v>1.021084998607928</v>
       </c>
       <c r="N15">
-        <v>1.018248178827683</v>
+        <v>1.005646292379398</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037623191543928</v>
+        <v>0.9817548032195345</v>
       </c>
       <c r="D16">
-        <v>1.046104268689873</v>
+        <v>1.008675092572228</v>
       </c>
       <c r="E16">
-        <v>1.051742678395399</v>
+        <v>1.003562641568345</v>
       </c>
       <c r="F16">
-        <v>1.058046302205105</v>
+        <v>1.010305220321869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038162246794257</v>
+        <v>1.042519569529751</v>
       </c>
       <c r="J16">
-        <v>1.043928703993646</v>
+        <v>1.010632317153423</v>
       </c>
       <c r="K16">
-        <v>1.049506153225302</v>
+        <v>1.022853239485915</v>
       </c>
       <c r="L16">
-        <v>1.055125009255676</v>
+        <v>1.017831378408711</v>
       </c>
       <c r="M16">
-        <v>1.061407043789385</v>
+        <v>1.024454732006037</v>
       </c>
       <c r="N16">
-        <v>1.018443577851162</v>
+        <v>1.006748076824973</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03812199473784</v>
+        <v>0.9845409986428031</v>
       </c>
       <c r="D17">
-        <v>1.046501689023286</v>
+        <v>1.010862706486139</v>
       </c>
       <c r="E17">
-        <v>1.052189454762439</v>
+        <v>1.00584875117814</v>
       </c>
       <c r="F17">
-        <v>1.058511458873096</v>
+        <v>1.012743996785636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038285635516154</v>
+        <v>1.043456546449072</v>
       </c>
       <c r="J17">
-        <v>1.044289379375374</v>
+        <v>1.012606485252527</v>
       </c>
       <c r="K17">
-        <v>1.049831334692632</v>
+        <v>1.024682916623078</v>
       </c>
       <c r="L17">
-        <v>1.055499828691113</v>
+        <v>1.019755001904102</v>
       </c>
       <c r="M17">
-        <v>1.061800678885968</v>
+        <v>1.02653220729485</v>
       </c>
       <c r="N17">
-        <v>1.018565962283394</v>
+        <v>1.007426530129956</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038412847350588</v>
+        <v>0.9861485298685075</v>
       </c>
       <c r="D18">
-        <v>1.046733390298701</v>
+        <v>1.01212544738801</v>
       </c>
       <c r="E18">
-        <v>1.052450078648388</v>
+        <v>1.007169735410982</v>
       </c>
       <c r="F18">
-        <v>1.058782753616278</v>
+        <v>1.014152521751765</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038357357027253</v>
+        <v>1.04399553291487</v>
       </c>
       <c r="J18">
-        <v>1.044499611522023</v>
+        <v>1.013745239152045</v>
       </c>
       <c r="K18">
-        <v>1.050020828988841</v>
+        <v>1.025738111510046</v>
       </c>
       <c r="L18">
-        <v>1.055718412993628</v>
+        <v>1.020865846970878</v>
       </c>
       <c r="M18">
-        <v>1.062030189207429</v>
+        <v>1.027731355414568</v>
       </c>
       <c r="N18">
-        <v>1.018637280889568</v>
+        <v>1.007817852166654</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038512005276103</v>
+        <v>0.9866937331027116</v>
       </c>
       <c r="D19">
-        <v>1.04681237630799</v>
+        <v>1.012553804910029</v>
       </c>
       <c r="E19">
-        <v>1.052538949259917</v>
+        <v>1.00761808565144</v>
       </c>
       <c r="F19">
-        <v>1.058875254233744</v>
+        <v>1.014630470556071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038381769991285</v>
+        <v>1.044178056280779</v>
       </c>
       <c r="J19">
-        <v>1.044571270945812</v>
+        <v>1.014131405732647</v>
       </c>
       <c r="K19">
-        <v>1.05008541141735</v>
+        <v>1.026095904896845</v>
       </c>
       <c r="L19">
-        <v>1.055792937600766</v>
+        <v>1.021242758986974</v>
       </c>
       <c r="M19">
-        <v>1.062108431028975</v>
+        <v>1.028138137485039</v>
       </c>
       <c r="N19">
-        <v>1.018661587489825</v>
+        <v>1.007950549387346</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038068487300955</v>
+        <v>0.9842439029281201</v>
       </c>
       <c r="D20">
-        <v>1.046459060694542</v>
+        <v>1.010629378092839</v>
       </c>
       <c r="E20">
-        <v>1.052141517130448</v>
+        <v>1.005604772878998</v>
       </c>
       <c r="F20">
-        <v>1.058461554389506</v>
+        <v>1.012483795905768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038272422840061</v>
+        <v>1.043356802304205</v>
       </c>
       <c r="J20">
-        <v>1.044250697201665</v>
+        <v>1.012396004228698</v>
       </c>
       <c r="K20">
-        <v>1.049796464281631</v>
+        <v>1.024487862694738</v>
       </c>
       <c r="L20">
-        <v>1.055459618422709</v>
+        <v>1.01954977989066</v>
       </c>
       <c r="M20">
-        <v>1.061758454928759</v>
+        <v>1.026310628083784</v>
       </c>
       <c r="N20">
-        <v>1.018552838440958</v>
+        <v>1.007354197904574</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036625491354217</v>
+        <v>0.9760673697160349</v>
       </c>
       <c r="D21">
-        <v>1.045309132117968</v>
+        <v>1.004213639661381</v>
       </c>
       <c r="E21">
-        <v>1.050849737370263</v>
+        <v>0.998909464679439</v>
       </c>
       <c r="F21">
-        <v>1.057116297531695</v>
+        <v>1.005336803508448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037913995779544</v>
+        <v>1.040596606024812</v>
       </c>
       <c r="J21">
-        <v>1.043206786809538</v>
+        <v>1.006600939283832</v>
       </c>
       <c r="K21">
-        <v>1.04885496640506</v>
+        <v>1.019115620667203</v>
       </c>
       <c r="L21">
-        <v>1.054375473368212</v>
+        <v>1.013911527082601</v>
       </c>
       <c r="M21">
-        <v>1.060619581999128</v>
+        <v>1.02021776902028</v>
       </c>
       <c r="N21">
-        <v>1.018198505563664</v>
+        <v>1.005362484970917</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035717378614646</v>
+        <v>0.9707522619432104</v>
       </c>
       <c r="D22">
-        <v>1.044585146285529</v>
+        <v>1.000049585144255</v>
       </c>
       <c r="E22">
-        <v>1.050037772239745</v>
+        <v>0.9945770721133739</v>
       </c>
       <c r="F22">
-        <v>1.056270255776531</v>
+        <v>1.000705586529254</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037686389227229</v>
+        <v>1.038788086188917</v>
       </c>
       <c r="J22">
-        <v>1.042549128441239</v>
+        <v>1.00283209134047</v>
       </c>
       <c r="K22">
-        <v>1.048261387817873</v>
+        <v>1.015620059807259</v>
       </c>
       <c r="L22">
-        <v>1.053693441861198</v>
+        <v>1.010256729214883</v>
       </c>
       <c r="M22">
-        <v>1.05990269906754</v>
+        <v>1.016263078559676</v>
       </c>
       <c r="N22">
-        <v>1.017975121540945</v>
+        <v>1.004067019451425</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03619886758888</v>
+        <v>0.9735872173340759</v>
       </c>
       <c r="D23">
-        <v>1.044969038437028</v>
+        <v>1.002269929780567</v>
       </c>
       <c r="E23">
-        <v>1.050468189344033</v>
+        <v>0.9968859348051129</v>
       </c>
       <c r="F23">
-        <v>1.056718780645599</v>
+        <v>1.00317433274582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037807261241976</v>
+        <v>1.039754010736531</v>
       </c>
       <c r="J23">
-        <v>1.042897890574513</v>
+        <v>1.004842441429436</v>
       </c>
       <c r="K23">
-        <v>1.048576209386835</v>
+        <v>1.017484780328439</v>
       </c>
       <c r="L23">
-        <v>1.054055036899612</v>
+        <v>1.012205086986378</v>
       </c>
       <c r="M23">
-        <v>1.060282811477319</v>
+        <v>1.018371806496657</v>
       </c>
       <c r="N23">
-        <v>1.018093598828694</v>
+        <v>1.004758044556685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038092665289079</v>
+        <v>0.9843782019475482</v>
       </c>
       <c r="D24">
-        <v>1.046478322932894</v>
+        <v>1.010734850005555</v>
       </c>
       <c r="E24">
-        <v>1.052163178000168</v>
+        <v>1.005715054580121</v>
       </c>
       <c r="F24">
-        <v>1.058484104149455</v>
+        <v>1.012601412537414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038278393849168</v>
+        <v>1.043401895624552</v>
       </c>
       <c r="J24">
-        <v>1.044268176454889</v>
+        <v>1.012491150818896</v>
       </c>
       <c r="K24">
-        <v>1.049812221271078</v>
+        <v>1.024576036229211</v>
       </c>
       <c r="L24">
-        <v>1.055477787840529</v>
+        <v>1.01964254531318</v>
       </c>
       <c r="M24">
-        <v>1.061777534396755</v>
+        <v>1.026410789045855</v>
       </c>
       <c r="N24">
-        <v>1.01855876874488</v>
+        <v>1.007386895309967</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040286760954974</v>
+        <v>0.9962157502991295</v>
       </c>
       <c r="D25">
-        <v>1.048225561823064</v>
+        <v>1.020042068282021</v>
       </c>
       <c r="E25">
-        <v>1.054131175469731</v>
+        <v>1.015475899373894</v>
       </c>
       <c r="F25">
-        <v>1.060531758702533</v>
+        <v>1.022997503199827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038815350263172</v>
+        <v>1.047341444619887</v>
       </c>
       <c r="J25">
-        <v>1.045852687705847</v>
+        <v>1.020871144157603</v>
       </c>
       <c r="K25">
-        <v>1.051239546380595</v>
+        <v>1.032337024486195</v>
       </c>
       <c r="L25">
-        <v>1.057127187961138</v>
+        <v>1.027838629928798</v>
       </c>
       <c r="M25">
-        <v>1.063508539089248</v>
+        <v>1.035249002120335</v>
       </c>
       <c r="N25">
-        <v>1.019095979497993</v>
+        <v>1.010265954123615</v>
       </c>
     </row>
   </sheetData>
